--- a/cal_profit/profit.xlsx
+++ b/cal_profit/profit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>证券名称</t>
   </si>
@@ -31,6 +31,9 @@
     <t>江龙船艇</t>
   </si>
   <si>
+    <t>凯龙股份</t>
+  </si>
+  <si>
     <t>中国人保</t>
   </si>
   <si>
@@ -43,175 +46,178 @@
     <t>银之杰</t>
   </si>
   <si>
+    <t>汉钟精机</t>
+  </si>
+  <si>
+    <t>宏达电子</t>
+  </si>
+  <si>
+    <t>科蓝软件</t>
+  </si>
+  <si>
+    <t>丰乐种业</t>
+  </si>
+  <si>
+    <t>九典制药</t>
+  </si>
+  <si>
+    <t>航发科技</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>华森制药</t>
+  </si>
+  <si>
+    <t>科大智能</t>
+  </si>
+  <si>
+    <t>西藏天路</t>
+  </si>
+  <si>
+    <t>北方稀土</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>太空板业</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>东方通信</t>
+  </si>
+  <si>
+    <t>吴通控股</t>
+  </si>
+  <si>
+    <t>招商蛇口</t>
+  </si>
+  <si>
+    <t>安硕信息</t>
+  </si>
+  <si>
+    <t>高能环境</t>
+  </si>
+  <si>
+    <t>蓝思科技</t>
+  </si>
+  <si>
+    <t>盛和资源</t>
+  </si>
+  <si>
+    <t>庄园牧场</t>
+  </si>
+  <si>
+    <t>太阳鸟</t>
+  </si>
+  <si>
+    <t>武汉凡谷</t>
+  </si>
+  <si>
+    <t>科创信息</t>
+  </si>
+  <si>
+    <t>中直股份</t>
+  </si>
+  <si>
+    <t>光迅科技</t>
+  </si>
+  <si>
+    <t>贵州燃气</t>
+  </si>
+  <si>
+    <t>*ST舜船</t>
+  </si>
+  <si>
+    <t>方大特钢</t>
+  </si>
+  <si>
+    <t>银龙股份</t>
+  </si>
+  <si>
+    <t>旋极信息</t>
+  </si>
+  <si>
+    <t>均胜电子</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>初灵信息</t>
+  </si>
+  <si>
+    <t>苏泊尔</t>
+  </si>
+  <si>
+    <t>新晨科技</t>
+  </si>
+  <si>
+    <t>赛隆药业</t>
+  </si>
+  <si>
+    <t>北京君正</t>
+  </si>
+  <si>
+    <t>中电鑫龙</t>
+  </si>
+  <si>
+    <t>科大国创</t>
+  </si>
+  <si>
+    <t>东北制药</t>
+  </si>
+  <si>
+    <t>华夏幸福</t>
+  </si>
+  <si>
+    <t>白银有色</t>
+  </si>
+  <si>
+    <t>信立泰</t>
+  </si>
+  <si>
+    <t>上海家化</t>
+  </si>
+  <si>
+    <t>赛为智能</t>
+  </si>
+  <si>
+    <t>西水股份</t>
+  </si>
+  <si>
+    <t>北方国际</t>
+  </si>
+  <si>
+    <t>东软载波</t>
+  </si>
+  <si>
+    <t>汉王科技</t>
+  </si>
+  <si>
+    <t>上海新阳</t>
+  </si>
+  <si>
+    <t>冀东水泥</t>
+  </si>
+  <si>
+    <t>合肥城建</t>
+  </si>
+  <si>
+    <t>西部建设</t>
+  </si>
+  <si>
     <t>长城证券</t>
   </si>
   <si>
-    <t>汉钟精机</t>
-  </si>
-  <si>
-    <t>宏达电子</t>
-  </si>
-  <si>
-    <t>科蓝软件</t>
-  </si>
-  <si>
-    <t>丰乐种业</t>
-  </si>
-  <si>
-    <t>九典制药</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>华森制药</t>
-  </si>
-  <si>
-    <t>科大智能</t>
-  </si>
-  <si>
-    <t>西藏天路</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>太空板业</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>东方通信</t>
-  </si>
-  <si>
-    <t>吴通控股</t>
-  </si>
-  <si>
-    <t>招商蛇口</t>
-  </si>
-  <si>
-    <t>安硕信息</t>
-  </si>
-  <si>
-    <t>高能环境</t>
-  </si>
-  <si>
-    <t>蓝思科技</t>
-  </si>
-  <si>
-    <t>盛和资源</t>
-  </si>
-  <si>
-    <t>庄园牧场</t>
-  </si>
-  <si>
-    <t>太阳鸟</t>
-  </si>
-  <si>
-    <t>武汉凡谷</t>
-  </si>
-  <si>
-    <t>科创信息</t>
-  </si>
-  <si>
-    <t>中直股份</t>
-  </si>
-  <si>
-    <t>光迅科技</t>
-  </si>
-  <si>
-    <t>贵州燃气</t>
-  </si>
-  <si>
-    <t>*ST舜船</t>
-  </si>
-  <si>
-    <t>方大特钢</t>
-  </si>
-  <si>
-    <t>银龙股份</t>
-  </si>
-  <si>
-    <t>均胜电子</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>初灵信息</t>
-  </si>
-  <si>
-    <t>苏泊尔</t>
-  </si>
-  <si>
-    <t>新晨科技</t>
-  </si>
-  <si>
-    <t>赛隆药业</t>
-  </si>
-  <si>
-    <t>北京君正</t>
-  </si>
-  <si>
-    <t>中电鑫龙</t>
-  </si>
-  <si>
-    <t>科大国创</t>
-  </si>
-  <si>
-    <t>东北制药</t>
-  </si>
-  <si>
-    <t>华夏幸福</t>
-  </si>
-  <si>
-    <t>白银有色</t>
-  </si>
-  <si>
-    <t>信立泰</t>
-  </si>
-  <si>
-    <t>上海家化</t>
-  </si>
-  <si>
-    <t>赛为智能</t>
-  </si>
-  <si>
-    <t>西水股份</t>
-  </si>
-  <si>
-    <t>北方国际</t>
-  </si>
-  <si>
-    <t>东软载波</t>
-  </si>
-  <si>
-    <t>汉王科技</t>
-  </si>
-  <si>
-    <t>上海新阳</t>
-  </si>
-  <si>
-    <t>冀东水泥</t>
-  </si>
-  <si>
-    <t>合肥城建</t>
-  </si>
-  <si>
-    <t>西部建设</t>
-  </si>
-  <si>
-    <t>航发科技</t>
+    <t>华脉科技</t>
   </si>
   <si>
     <t>中通国脉</t>
-  </si>
-  <si>
-    <t>凯龙股份</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4385.9</v>
+        <v>6418.81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -635,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3616.35</v>
+        <v>4385.9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -646,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3473.58</v>
+        <v>3616.35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -657,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>3033.46</v>
+        <v>3473.58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -668,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2029.41</v>
+        <v>3033.46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -734,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1216.07</v>
+        <v>1333.8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -745,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1015.03</v>
+        <v>1216.07</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -756,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>946.08</v>
+        <v>1015.03</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -767,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>945.36</v>
+        <v>946.08</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -778,7 +784,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>892.26</v>
+        <v>945.36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -789,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>822.0599999999999</v>
+        <v>892.26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -800,7 +806,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>778.52</v>
+        <v>822.0599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -811,7 +817,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>693</v>
+        <v>778.52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -822,7 +828,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>656.96</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -833,7 +839,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>489.74</v>
+        <v>656.96</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -844,7 +850,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>488.53</v>
+        <v>489.74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -855,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>475.56</v>
+        <v>488.53</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -866,7 +872,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>469.87</v>
+        <v>475.56</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -877,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>436.89</v>
+        <v>469.87</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -888,7 +894,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>421.82</v>
+        <v>436.89</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -899,7 +905,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>417.85</v>
+        <v>421.82</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -910,7 +916,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>417.11</v>
+        <v>417.85</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -921,7 +927,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>399.42</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -932,7 +938,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>353.28</v>
+        <v>399.42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -943,7 +949,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>348.81</v>
+        <v>353.28</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -954,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>314.79</v>
+        <v>348.81</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -965,7 +971,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>300.64</v>
+        <v>314.79</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -976,7 +982,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>290.01</v>
+        <v>300.64</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -987,7 +993,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>278.73</v>
+        <v>290.01</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -998,7 +1004,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>263.78</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1009,7 +1015,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>167.16</v>
+        <v>263.78</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1020,7 +1026,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>113.14</v>
+        <v>245.8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1031,7 +1037,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>110.81</v>
+        <v>167.16</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1042,7 +1048,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>102.57</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1053,7 +1059,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>95.34</v>
+        <v>110.81</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1064,7 +1070,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>87.01000000000001</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1075,7 +1081,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>75.28</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1086,7 +1092,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>54.02</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1097,7 +1103,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>9.539999999999999</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1108,7 +1114,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>3.83</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1119,7 +1125,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>-6.28</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1130,7 +1136,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>-49.82</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1141,7 +1147,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>-246.09</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1152,7 +1158,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>-282.87</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1163,7 +1169,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>-991.11</v>
+        <v>-246.09</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1174,7 +1180,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>-1175.56</v>
+        <v>-282.87</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1185,7 +1191,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>-1553.35</v>
+        <v>-991.11</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1196,7 +1202,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>-1559.88</v>
+        <v>-1175.56</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1207,7 +1213,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>-2009.62</v>
+        <v>-1553.35</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1218,7 +1224,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>-2493.54</v>
+        <v>-1559.88</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1229,7 +1235,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>-5006.69</v>
+        <v>-2009.62</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1240,7 +1246,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>-7805.58</v>
+        <v>-2493.54</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1251,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>-9103.790000000001</v>
+        <v>-5006.69</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1262,7 +1268,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>-42937.98</v>
+        <v>-7805.58</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1273,7 +1279,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>-61264.24</v>
+        <v>-9103.790000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1284,7 +1290,29 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>-77801.87</v>
+        <v>-17626.55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>-26749.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
+        <v>-60626.71</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/profit.xlsx
+++ b/cal_profit/profit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>证券名称</t>
   </si>
@@ -34,6 +34,12 @@
     <t>凯龙股份</t>
   </si>
   <si>
+    <t>赛腾股份</t>
+  </si>
+  <si>
+    <t>梅安森</t>
+  </si>
+  <si>
     <t>中国人保</t>
   </si>
   <si>
@@ -46,6 +52,18 @@
     <t>银之杰</t>
   </si>
   <si>
+    <t>威派格</t>
+  </si>
+  <si>
+    <t>德宏股份</t>
+  </si>
+  <si>
+    <t>长城证券</t>
+  </si>
+  <si>
+    <t>诚志股份</t>
+  </si>
+  <si>
     <t>汉钟精机</t>
   </si>
   <si>
@@ -55,6 +73,9 @@
     <t>科蓝软件</t>
   </si>
   <si>
+    <t>三安光电</t>
+  </si>
+  <si>
     <t>丰乐种业</t>
   </si>
   <si>
@@ -70,6 +91,9 @@
     <t>华森制药</t>
   </si>
   <si>
+    <t>人民网</t>
+  </si>
+  <si>
     <t>科大智能</t>
   </si>
   <si>
@@ -85,6 +109,9 @@
     <t>太空板业</t>
   </si>
   <si>
+    <t>华脉科技</t>
+  </si>
+  <si>
     <t>亿纬锂能</t>
   </si>
   <si>
@@ -145,6 +172,9 @@
     <t>均胜电子</t>
   </si>
   <si>
+    <t>南京证券</t>
+  </si>
+  <si>
     <t>复星医药</t>
   </si>
   <si>
@@ -211,13 +241,13 @@
     <t>西部建设</t>
   </si>
   <si>
-    <t>长城证券</t>
-  </si>
-  <si>
-    <t>华脉科技</t>
+    <t>中海达</t>
   </si>
   <si>
     <t>中通国脉</t>
+  </si>
+  <si>
+    <t>顺灏股份</t>
   </si>
 </sst>
 </file>
@@ -575,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4385.9</v>
+        <v>6175.2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -652,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3616.35</v>
+        <v>4486.5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -663,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>3473.58</v>
+        <v>4385.9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -674,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3033.46</v>
+        <v>3616.35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -685,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1731.87</v>
+        <v>3473.58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -696,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1723.66</v>
+        <v>3033.46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -707,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>1425.53</v>
+        <v>2791.65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -718,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>1410.63</v>
+        <v>2507.24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -729,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1378.37</v>
+        <v>2133.85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -740,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1333.8</v>
+        <v>1936.98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -751,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1216.07</v>
+        <v>1731.87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -762,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1015.03</v>
+        <v>1723.66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -773,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>946.08</v>
+        <v>1425.53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -784,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>945.36</v>
+        <v>1414.7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -795,7 +825,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>892.26</v>
+        <v>1410.63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -806,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>822.0599999999999</v>
+        <v>1378.37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -817,7 +847,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>778.52</v>
+        <v>1333.8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -828,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>693</v>
+        <v>1216.07</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -839,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>656.96</v>
+        <v>1015.03</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -850,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>489.74</v>
+        <v>961.55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -861,7 +891,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>488.53</v>
+        <v>946.08</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -872,7 +902,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>475.56</v>
+        <v>945.36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -883,7 +913,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>469.87</v>
+        <v>892.26</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -894,7 +924,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>436.89</v>
+        <v>822.0599999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -905,7 +935,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>421.82</v>
+        <v>778.52</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -916,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>417.85</v>
+        <v>713.87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -927,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>417.11</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -938,7 +968,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>399.42</v>
+        <v>656.96</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -949,7 +979,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>353.28</v>
+        <v>489.74</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -960,7 +990,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>348.81</v>
+        <v>488.53</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -971,7 +1001,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>314.79</v>
+        <v>475.56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -982,7 +1012,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>300.64</v>
+        <v>469.87</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -993,7 +1023,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>290.01</v>
+        <v>436.89</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1004,7 +1034,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>278.73</v>
+        <v>421.82</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1015,7 +1045,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>263.78</v>
+        <v>417.85</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1026,7 +1056,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>245.8</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1037,7 +1067,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>167.16</v>
+        <v>399.42</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1048,7 +1078,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>113.14</v>
+        <v>353.28</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1059,7 +1089,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>110.81</v>
+        <v>348.81</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1070,7 +1100,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>102.57</v>
+        <v>314.79</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1081,7 +1111,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>95.34</v>
+        <v>300.64</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1092,7 +1122,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>87.01000000000001</v>
+        <v>290.01</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1103,7 +1133,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>75.28</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1114,7 +1144,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>54.02</v>
+        <v>263.78</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1125,7 +1155,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>9.539999999999999</v>
+        <v>245.8</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1136,7 +1166,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>3.83</v>
+        <v>167.16</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1147,7 +1177,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>-6.28</v>
+        <v>162.88</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1158,7 +1188,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>-49.82</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1169,7 +1199,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>-246.09</v>
+        <v>110.81</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1180,7 +1210,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>-282.87</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1191,7 +1221,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>-991.11</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1202,7 +1232,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>-1175.56</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1213,7 +1243,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>-1553.35</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1224,7 +1254,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>-1559.88</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1235,7 +1265,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>-2009.62</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1246,7 +1276,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>-2493.54</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1257,7 +1287,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>-5006.69</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1268,7 +1298,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>-7805.58</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1279,7 +1309,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>-9103.790000000001</v>
+        <v>-246.09</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1290,7 +1320,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>-17626.55</v>
+        <v>-282.87</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1301,7 +1331,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>-26749.54</v>
+        <v>-991.11</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1312,7 +1342,117 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>-60626.71</v>
+        <v>-1175.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>-1553.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>-1559.88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>-2009.62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>-2493.54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
+        <v>-5006.69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73">
+        <v>-7805.58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>-9103.790000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>-72014.92999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76">
+        <v>-86277.47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>-92179.62</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/profit.xlsx
+++ b/cal_profit/profit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>证券名称</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>西部建设</t>
+  </si>
+  <si>
+    <t>华菱精工</t>
   </si>
   <si>
     <t>中海达</t>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1430,7 +1433,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>-72014.92999999999</v>
+        <v>-51803.58</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1441,7 +1444,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>-86277.47</v>
+        <v>-85343.89</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1452,7 +1455,18 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>-92179.62</v>
+        <v>-86387.98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>-114914.62</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/profit.xlsx
+++ b/cal_profit/profit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>证券名称</t>
   </si>
@@ -64,6 +64,9 @@
     <t>诚志股份</t>
   </si>
   <si>
+    <t>华菱精工</t>
+  </si>
+  <si>
     <t>汉钟精机</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>亿纬锂能</t>
   </si>
   <si>
+    <t>飞力达</t>
+  </si>
+  <si>
     <t>东方通信</t>
   </si>
   <si>
@@ -241,16 +247,13 @@
     <t>西部建设</t>
   </si>
   <si>
-    <t>华菱精工</t>
-  </si>
-  <si>
     <t>中海达</t>
   </si>
   <si>
+    <t>顺灏股份</t>
+  </si>
+  <si>
     <t>中通国脉</t>
-  </si>
-  <si>
-    <t>顺灏股份</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1731.87</v>
+        <v>1865.48</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -795,7 +798,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1723.66</v>
+        <v>1731.87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -806,7 +809,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1425.53</v>
+        <v>1723.66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -817,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1414.7</v>
+        <v>1425.53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -828,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1410.63</v>
+        <v>1414.7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -839,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1378.37</v>
+        <v>1410.63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -850,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1333.8</v>
+        <v>1378.37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -861,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1216.07</v>
+        <v>1333.8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -872,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1015.03</v>
+        <v>1216.07</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -883,7 +886,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>961.55</v>
+        <v>1015.03</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -894,7 +897,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>946.08</v>
+        <v>961.55</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -905,7 +908,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>945.36</v>
+        <v>946.08</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -916,7 +919,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>892.26</v>
+        <v>945.36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -927,7 +930,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>822.0599999999999</v>
+        <v>892.26</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -938,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>778.52</v>
+        <v>822.0599999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -949,7 +952,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>713.87</v>
+        <v>778.52</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -960,7 +963,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>693</v>
+        <v>713.87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -971,7 +974,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>656.96</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -982,7 +985,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>489.74</v>
+        <v>674.86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -993,7 +996,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>488.53</v>
+        <v>656.96</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1004,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>475.56</v>
+        <v>489.74</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1015,7 +1018,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>469.87</v>
+        <v>488.53</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1026,7 +1029,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>436.89</v>
+        <v>475.56</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1037,7 +1040,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>421.82</v>
+        <v>469.87</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1048,7 +1051,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>417.85</v>
+        <v>436.89</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1059,7 +1062,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>417.11</v>
+        <v>421.82</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1070,7 +1073,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>399.42</v>
+        <v>417.85</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1081,7 +1084,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>353.28</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1092,7 +1095,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>348.81</v>
+        <v>399.42</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1103,7 +1106,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>314.79</v>
+        <v>353.28</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1114,7 +1117,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>300.64</v>
+        <v>348.81</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1125,7 +1128,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>290.01</v>
+        <v>314.79</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1136,7 +1139,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>278.73</v>
+        <v>300.64</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1147,7 +1150,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>263.78</v>
+        <v>290.01</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1158,7 +1161,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>245.8</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1169,7 +1172,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>167.16</v>
+        <v>263.78</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1180,7 +1183,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>162.88</v>
+        <v>245.8</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1191,7 +1194,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>113.14</v>
+        <v>167.16</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1202,7 +1205,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>110.81</v>
+        <v>162.88</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1213,7 +1216,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>102.57</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1224,7 +1227,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>95.34</v>
+        <v>110.81</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1235,7 +1238,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>87.01000000000001</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1246,7 +1249,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>75.28</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1257,7 +1260,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>54.02</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1268,7 +1271,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>9.539999999999999</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1279,7 +1282,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>3.83</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1290,7 +1293,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>-6.28</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1301,7 +1304,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>-49.82</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1312,7 +1315,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>-246.09</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1323,7 +1326,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>-282.87</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1334,7 +1337,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>-991.11</v>
+        <v>-246.09</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1345,7 +1348,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>-1175.56</v>
+        <v>-282.87</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1356,7 +1359,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>-1553.35</v>
+        <v>-991.11</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1367,7 +1370,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>-1559.88</v>
+        <v>-1175.56</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1378,7 +1381,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>-2009.62</v>
+        <v>-1553.35</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1389,7 +1392,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>-2493.54</v>
+        <v>-1559.88</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1400,7 +1403,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>-5006.69</v>
+        <v>-2009.62</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1411,7 +1414,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>-7805.58</v>
+        <v>-2493.54</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1422,7 +1425,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>-9103.790000000001</v>
+        <v>-5006.69</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1433,7 +1436,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>-51803.58</v>
+        <v>-7805.58</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1444,7 +1447,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>-85343.89</v>
+        <v>-9103.790000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1455,7 +1458,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>-86387.98</v>
+        <v>-85369.82000000001</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1466,7 +1469,18 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>-114914.62</v>
+        <v>-105248.84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>-110270.92</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/profit.xlsx
+++ b/cal_profit/profit.xlsx
@@ -28,15 +28,15 @@
     <t>七一二</t>
   </si>
   <si>
+    <t>赛腾股份</t>
+  </si>
+  <si>
     <t>江龙船艇</t>
   </si>
   <si>
     <t>凯龙股份</t>
   </si>
   <si>
-    <t>赛腾股份</t>
-  </si>
-  <si>
     <t>梅安森</t>
   </si>
   <si>
@@ -52,208 +52,208 @@
     <t>银之杰</t>
   </si>
   <si>
+    <t>德宏股份</t>
+  </si>
+  <si>
+    <t>长城证券</t>
+  </si>
+  <si>
+    <t>诚志股份</t>
+  </si>
+  <si>
+    <t>华菱精工</t>
+  </si>
+  <si>
+    <t>汉钟精机</t>
+  </si>
+  <si>
+    <t>宏达电子</t>
+  </si>
+  <si>
+    <t>科蓝软件</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>丰乐种业</t>
+  </si>
+  <si>
+    <t>九典制药</t>
+  </si>
+  <si>
+    <t>航发科技</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>华森制药</t>
+  </si>
+  <si>
+    <t>人民网</t>
+  </si>
+  <si>
+    <t>科大智能</t>
+  </si>
+  <si>
+    <t>西藏天路</t>
+  </si>
+  <si>
+    <t>北方稀土</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>太空板业</t>
+  </si>
+  <si>
+    <t>华脉科技</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>飞力达</t>
+  </si>
+  <si>
+    <t>东方通信</t>
+  </si>
+  <si>
+    <t>吴通控股</t>
+  </si>
+  <si>
+    <t>招商蛇口</t>
+  </si>
+  <si>
+    <t>安硕信息</t>
+  </si>
+  <si>
+    <t>高能环境</t>
+  </si>
+  <si>
+    <t>蓝思科技</t>
+  </si>
+  <si>
+    <t>盛和资源</t>
+  </si>
+  <si>
+    <t>庄园牧场</t>
+  </si>
+  <si>
+    <t>太阳鸟</t>
+  </si>
+  <si>
+    <t>武汉凡谷</t>
+  </si>
+  <si>
+    <t>科创信息</t>
+  </si>
+  <si>
+    <t>中直股份</t>
+  </si>
+  <si>
+    <t>光迅科技</t>
+  </si>
+  <si>
+    <t>贵州燃气</t>
+  </si>
+  <si>
+    <t>*ST舜船</t>
+  </si>
+  <si>
+    <t>方大特钢</t>
+  </si>
+  <si>
+    <t>银龙股份</t>
+  </si>
+  <si>
+    <t>旋极信息</t>
+  </si>
+  <si>
+    <t>均胜电子</t>
+  </si>
+  <si>
+    <t>南京证券</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>初灵信息</t>
+  </si>
+  <si>
+    <t>苏泊尔</t>
+  </si>
+  <si>
+    <t>新晨科技</t>
+  </si>
+  <si>
+    <t>赛隆药业</t>
+  </si>
+  <si>
+    <t>北京君正</t>
+  </si>
+  <si>
+    <t>中电鑫龙</t>
+  </si>
+  <si>
+    <t>科大国创</t>
+  </si>
+  <si>
+    <t>东北制药</t>
+  </si>
+  <si>
+    <t>华夏幸福</t>
+  </si>
+  <si>
+    <t>白银有色</t>
+  </si>
+  <si>
+    <t>信立泰</t>
+  </si>
+  <si>
+    <t>上海家化</t>
+  </si>
+  <si>
+    <t>赛为智能</t>
+  </si>
+  <si>
+    <t>西水股份</t>
+  </si>
+  <si>
+    <t>北方国际</t>
+  </si>
+  <si>
+    <t>东软载波</t>
+  </si>
+  <si>
+    <t>汉王科技</t>
+  </si>
+  <si>
+    <t>上海新阳</t>
+  </si>
+  <si>
+    <t>冀东水泥</t>
+  </si>
+  <si>
+    <t>合肥城建</t>
+  </si>
+  <si>
+    <t>西部建设</t>
+  </si>
+  <si>
+    <t>中海达</t>
+  </si>
+  <si>
     <t>威派格</t>
   </si>
   <si>
-    <t>德宏股份</t>
-  </si>
-  <si>
-    <t>长城证券</t>
-  </si>
-  <si>
-    <t>诚志股份</t>
-  </si>
-  <si>
-    <t>华菱精工</t>
-  </si>
-  <si>
-    <t>汉钟精机</t>
-  </si>
-  <si>
-    <t>宏达电子</t>
-  </si>
-  <si>
-    <t>科蓝软件</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>丰乐种业</t>
-  </si>
-  <si>
-    <t>九典制药</t>
-  </si>
-  <si>
-    <t>航发科技</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>华森制药</t>
-  </si>
-  <si>
-    <t>人民网</t>
-  </si>
-  <si>
-    <t>科大智能</t>
-  </si>
-  <si>
-    <t>西藏天路</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>太空板业</t>
-  </si>
-  <si>
-    <t>华脉科技</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>飞力达</t>
-  </si>
-  <si>
-    <t>东方通信</t>
-  </si>
-  <si>
-    <t>吴通控股</t>
-  </si>
-  <si>
-    <t>招商蛇口</t>
-  </si>
-  <si>
-    <t>安硕信息</t>
-  </si>
-  <si>
-    <t>高能环境</t>
-  </si>
-  <si>
-    <t>蓝思科技</t>
-  </si>
-  <si>
-    <t>盛和资源</t>
-  </si>
-  <si>
-    <t>庄园牧场</t>
-  </si>
-  <si>
-    <t>太阳鸟</t>
-  </si>
-  <si>
-    <t>武汉凡谷</t>
-  </si>
-  <si>
-    <t>科创信息</t>
-  </si>
-  <si>
-    <t>中直股份</t>
-  </si>
-  <si>
-    <t>光迅科技</t>
-  </si>
-  <si>
-    <t>贵州燃气</t>
-  </si>
-  <si>
-    <t>*ST舜船</t>
-  </si>
-  <si>
-    <t>方大特钢</t>
-  </si>
-  <si>
-    <t>银龙股份</t>
-  </si>
-  <si>
-    <t>旋极信息</t>
-  </si>
-  <si>
-    <t>均胜电子</t>
-  </si>
-  <si>
-    <t>南京证券</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>初灵信息</t>
-  </si>
-  <si>
-    <t>苏泊尔</t>
-  </si>
-  <si>
-    <t>新晨科技</t>
-  </si>
-  <si>
-    <t>赛隆药业</t>
-  </si>
-  <si>
-    <t>北京君正</t>
-  </si>
-  <si>
-    <t>中电鑫龙</t>
-  </si>
-  <si>
-    <t>科大国创</t>
-  </si>
-  <si>
-    <t>东北制药</t>
-  </si>
-  <si>
-    <t>华夏幸福</t>
-  </si>
-  <si>
-    <t>白银有色</t>
-  </si>
-  <si>
-    <t>信立泰</t>
-  </si>
-  <si>
-    <t>上海家化</t>
-  </si>
-  <si>
-    <t>赛为智能</t>
-  </si>
-  <si>
-    <t>西水股份</t>
-  </si>
-  <si>
-    <t>北方国际</t>
-  </si>
-  <si>
-    <t>东软载波</t>
-  </si>
-  <si>
-    <t>汉王科技</t>
-  </si>
-  <si>
-    <t>上海新阳</t>
-  </si>
-  <si>
-    <t>冀东水泥</t>
-  </si>
-  <si>
-    <t>合肥城建</t>
-  </si>
-  <si>
-    <t>西部建设</t>
-  </si>
-  <si>
-    <t>中海达</t>
+    <t>中通国脉</t>
   </si>
   <si>
     <t>顺灏股份</t>
-  </si>
-  <si>
-    <t>中通国脉</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>6972.08</v>
+        <v>8339.030000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>6418.81</v>
+        <v>6972.08</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -677,7 +677,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6175.2</v>
+        <v>6418.81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -743,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>2791.65</v>
+        <v>2507.24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -754,7 +754,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>2507.24</v>
+        <v>2133.85</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -765,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2133.85</v>
+        <v>1936.98</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -776,7 +776,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1936.98</v>
+        <v>1865.48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -787,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1865.48</v>
+        <v>1731.87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -798,7 +798,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1731.87</v>
+        <v>1723.66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -809,7 +809,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1723.66</v>
+        <v>1425.53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -820,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1425.53</v>
+        <v>1414.7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -831,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1414.7</v>
+        <v>1410.63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -842,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1410.63</v>
+        <v>1378.37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -853,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1378.37</v>
+        <v>1333.8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1333.8</v>
+        <v>1216.07</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -875,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1216.07</v>
+        <v>1015.03</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -886,7 +886,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1015.03</v>
+        <v>961.55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -897,7 +897,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>961.55</v>
+        <v>946.08</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -908,7 +908,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>946.08</v>
+        <v>945.36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -919,7 +919,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>945.36</v>
+        <v>892.26</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -930,7 +930,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>892.26</v>
+        <v>822.0599999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -941,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>822.0599999999999</v>
+        <v>778.52</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -952,7 +952,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>778.52</v>
+        <v>713.87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -963,7 +963,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>713.87</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -974,7 +974,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>693</v>
+        <v>674.86</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -985,7 +985,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>674.86</v>
+        <v>656.96</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -996,7 +996,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>656.96</v>
+        <v>489.74</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>489.74</v>
+        <v>488.53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1018,7 +1018,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>488.53</v>
+        <v>475.56</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>475.56</v>
+        <v>469.87</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1040,7 +1040,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>469.87</v>
+        <v>436.89</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1051,7 +1051,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>436.89</v>
+        <v>421.82</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1062,7 +1062,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>421.82</v>
+        <v>417.85</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1073,7 +1073,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>417.85</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1084,7 +1084,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>417.11</v>
+        <v>399.42</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>399.42</v>
+        <v>353.28</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>353.28</v>
+        <v>348.81</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>348.81</v>
+        <v>314.79</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1128,7 +1128,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>314.79</v>
+        <v>300.64</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>300.64</v>
+        <v>290.01</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1150,7 +1150,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>290.01</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1161,7 +1161,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>278.73</v>
+        <v>263.78</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1172,7 +1172,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>263.78</v>
+        <v>245.8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1183,7 +1183,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>245.8</v>
+        <v>167.16</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1194,7 +1194,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>167.16</v>
+        <v>162.88</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1205,7 +1205,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>162.88</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1216,7 +1216,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>113.14</v>
+        <v>110.81</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>110.81</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>102.57</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1249,7 +1249,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>95.34</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1260,7 +1260,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>87.01000000000001</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1271,7 +1271,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>75.28</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1282,7 +1282,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>54.02</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1293,7 +1293,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>9.539999999999999</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1304,7 +1304,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>3.83</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1315,7 +1315,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>-6.28</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>-49.82</v>
+        <v>-246.09</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1337,7 +1337,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>-246.09</v>
+        <v>-282.87</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>-282.87</v>
+        <v>-991.11</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1359,7 +1359,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>-991.11</v>
+        <v>-1175.56</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1370,7 +1370,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>-1175.56</v>
+        <v>-1553.35</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1381,7 +1381,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>-1553.35</v>
+        <v>-1559.88</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1392,7 +1392,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>-1559.88</v>
+        <v>-2009.62</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1403,7 +1403,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>-2009.62</v>
+        <v>-2493.54</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1414,7 +1414,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>-2493.54</v>
+        <v>-5006.69</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1425,7 +1425,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>-5006.69</v>
+        <v>-7805.58</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>-7805.58</v>
+        <v>-9103.790000000001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1447,7 +1447,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>-9103.790000000001</v>
+        <v>-9779.209999999999</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>-85369.82000000001</v>
+        <v>-14803.98</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>-105248.84</v>
+        <v>-74575.39</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1480,7 +1480,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>-110270.92</v>
+        <v>-145043.87</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/profit.xlsx
+++ b/cal_profit/profit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>证券名称</t>
   </si>
@@ -46,6 +46,9 @@
     <t>安达维尔</t>
   </si>
   <si>
+    <t>威派格</t>
+  </si>
+  <si>
     <t>青农商行</t>
   </si>
   <si>
@@ -103,9 +106,15 @@
     <t>北方稀土</t>
   </si>
   <si>
+    <t>苏奥传感</t>
+  </si>
+  <si>
     <t>海康威视</t>
   </si>
   <si>
+    <t>硕贝德</t>
+  </si>
+  <si>
     <t>太空板业</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>旋极信息</t>
   </si>
   <si>
+    <t>中信建投</t>
+  </si>
+  <si>
     <t>均胜电子</t>
   </si>
   <si>
@@ -235,6 +247,9 @@
     <t>上海新阳</t>
   </si>
   <si>
+    <t>东港股份</t>
+  </si>
+  <si>
     <t>冀东水泥</t>
   </si>
   <si>
@@ -247,13 +262,19 @@
     <t>中海达</t>
   </si>
   <si>
-    <t>威派格</t>
+    <t>惠威科技</t>
+  </si>
+  <si>
+    <t>顺灏股份</t>
+  </si>
+  <si>
+    <t>瀛通通讯</t>
+  </si>
+  <si>
+    <t>凯普生物</t>
   </si>
   <si>
     <t>中通国脉</t>
-  </si>
-  <si>
-    <t>顺灏股份</t>
   </si>
 </sst>
 </file>
@@ -611,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>3473.58</v>
+        <v>3564.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -732,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>3033.46</v>
+        <v>3473.58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -743,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>2507.24</v>
+        <v>3033.46</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -754,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>2133.85</v>
+        <v>2507.24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -765,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>1936.98</v>
+        <v>2133.85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -776,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1865.48</v>
+        <v>1936.98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -787,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1731.87</v>
+        <v>1865.48</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -798,7 +819,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1723.66</v>
+        <v>1731.87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -809,7 +830,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1425.53</v>
+        <v>1723.66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -820,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1414.7</v>
+        <v>1425.53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -831,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1410.63</v>
+        <v>1414.7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -842,7 +863,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1378.37</v>
+        <v>1410.63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -853,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1333.8</v>
+        <v>1378.37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -864,7 +885,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1216.07</v>
+        <v>1333.8</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -875,7 +896,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1015.03</v>
+        <v>1216.07</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -886,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>961.55</v>
+        <v>1015.03</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -897,7 +918,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>946.08</v>
+        <v>961.55</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -908,7 +929,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>945.36</v>
+        <v>946.08</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -919,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>892.26</v>
+        <v>945.36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -930,7 +951,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>822.0599999999999</v>
+        <v>892.26</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -941,7 +962,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>778.52</v>
+        <v>824.62</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -952,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>713.87</v>
+        <v>822.0599999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -963,7 +984,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>693</v>
+        <v>802.92</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -974,7 +995,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>674.86</v>
+        <v>778.52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -985,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>656.96</v>
+        <v>713.87</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -996,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>489.74</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1007,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>488.53</v>
+        <v>674.86</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1018,7 +1039,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>475.56</v>
+        <v>656.96</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1029,7 +1050,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>469.87</v>
+        <v>489.74</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1040,7 +1061,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>436.89</v>
+        <v>488.53</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1051,7 +1072,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>421.82</v>
+        <v>475.56</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1062,7 +1083,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>417.85</v>
+        <v>469.87</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1073,7 +1094,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>417.11</v>
+        <v>436.89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1084,7 +1105,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>399.42</v>
+        <v>421.82</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1095,7 +1116,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>353.28</v>
+        <v>417.85</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1106,7 +1127,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>348.81</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1117,7 +1138,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>314.79</v>
+        <v>399.42</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1128,7 +1149,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>300.64</v>
+        <v>353.28</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1139,7 +1160,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>290.01</v>
+        <v>348.81</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1150,7 +1171,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>278.73</v>
+        <v>314.79</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1161,7 +1182,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>263.78</v>
+        <v>300.64</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1172,7 +1193,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>245.8</v>
+        <v>290.01</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1183,7 +1204,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>167.16</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1194,7 +1215,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>162.88</v>
+        <v>263.78</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1205,7 +1226,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>113.14</v>
+        <v>245.8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1216,7 +1237,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>110.81</v>
+        <v>243.03</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1227,7 +1248,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>102.57</v>
+        <v>167.16</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1238,7 +1259,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>95.34</v>
+        <v>162.88</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1249,7 +1270,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>87.01000000000001</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1260,7 +1281,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>75.28</v>
+        <v>110.81</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1271,7 +1292,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>54.02</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1282,7 +1303,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>9.539999999999999</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1293,7 +1314,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>3.83</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1304,7 +1325,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>-6.28</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1315,7 +1336,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>-49.82</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1326,7 +1347,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>-246.09</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1337,7 +1358,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>-282.87</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1348,7 +1369,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>-991.11</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1359,7 +1380,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>-1175.56</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1370,7 +1391,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>-1553.35</v>
+        <v>-246.09</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1381,7 +1402,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>-1559.88</v>
+        <v>-282.87</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1392,7 +1413,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>-2009.62</v>
+        <v>-991.11</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1403,7 +1424,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>-2493.54</v>
+        <v>-1175.56</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1414,7 +1435,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>-5006.69</v>
+        <v>-1553.35</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1425,7 +1446,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>-7805.58</v>
+        <v>-1559.88</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1436,7 +1457,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>-9103.790000000001</v>
+        <v>-2009.62</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1447,7 +1468,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>-9779.209999999999</v>
+        <v>-2493.54</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1458,7 +1479,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>-14803.98</v>
+        <v>-3320.92</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1469,7 +1490,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>-74575.39</v>
+        <v>-5006.69</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1480,7 +1501,84 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>-145043.87</v>
+        <v>-7805.58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>-9103.790000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
+        <v>-9779.209999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
+        <v>-17189.16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
+        <v>-19079.85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>-36587.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>-52115.64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86">
+        <v>-83215.56</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/profit.xlsx
+++ b/cal_profit/profit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>证券名称</t>
   </si>
@@ -55,6 +55,9 @@
     <t>银之杰</t>
   </si>
   <si>
+    <t>香山股份</t>
+  </si>
+  <si>
     <t>德宏股份</t>
   </si>
   <si>
@@ -73,6 +76,15 @@
     <t>宏达电子</t>
   </si>
   <si>
+    <t>四方精创</t>
+  </si>
+  <si>
+    <t>凯普生物</t>
+  </si>
+  <si>
+    <t>瀛通通讯</t>
+  </si>
+  <si>
     <t>科蓝软件</t>
   </si>
   <si>
@@ -88,9 +100,15 @@
     <t>航发科技</t>
   </si>
   <si>
+    <t>恒铭达</t>
+  </si>
+  <si>
     <t>韦尔股份</t>
   </si>
   <si>
+    <t>精测电子</t>
+  </si>
+  <si>
     <t>华森制药</t>
   </si>
   <si>
@@ -115,12 +133,21 @@
     <t>硕贝德</t>
   </si>
   <si>
+    <t>惠威科技</t>
+  </si>
+  <si>
     <t>太空板业</t>
   </si>
   <si>
+    <t>科瑞技术</t>
+  </si>
+  <si>
     <t>华脉科技</t>
   </si>
   <si>
+    <t>奥飞娱乐</t>
+  </si>
+  <si>
     <t>亿纬锂能</t>
   </si>
   <si>
@@ -142,6 +169,9 @@
     <t>高能环境</t>
   </si>
   <si>
+    <t>光弘科技</t>
+  </si>
+  <si>
     <t>蓝思科技</t>
   </si>
   <si>
@@ -262,19 +292,25 @@
     <t>中海达</t>
   </si>
   <si>
-    <t>惠威科技</t>
+    <t>麦克奥迪</t>
+  </si>
+  <si>
+    <t>华培动力</t>
   </si>
   <si>
     <t>顺灏股份</t>
   </si>
   <si>
-    <t>瀛通通讯</t>
-  </si>
-  <si>
-    <t>凯普生物</t>
+    <t>神州数码</t>
+  </si>
+  <si>
+    <t>四川金顶</t>
   </si>
   <si>
     <t>中通国脉</t>
+  </si>
+  <si>
+    <t>我武生物</t>
   </si>
 </sst>
 </file>
@@ -632,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>2507.24</v>
+        <v>2815.26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -786,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2133.85</v>
+        <v>2507.24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -797,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>1936.98</v>
+        <v>2133.85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -808,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1865.48</v>
+        <v>1936.98</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -819,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1731.87</v>
+        <v>1865.48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -830,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1723.66</v>
+        <v>1731.87</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -841,7 +877,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1425.53</v>
+        <v>1723.66</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -852,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1414.7</v>
+        <v>1524.36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -863,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1410.63</v>
+        <v>1514.54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -874,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1378.37</v>
+        <v>1462.96</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -885,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1333.8</v>
+        <v>1425.53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -896,7 +932,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1216.07</v>
+        <v>1414.7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -907,7 +943,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1015.03</v>
+        <v>1410.63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -918,7 +954,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>961.55</v>
+        <v>1378.37</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -929,7 +965,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>946.08</v>
+        <v>1333.8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -940,7 +976,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>945.36</v>
+        <v>1316.05</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -951,7 +987,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>892.26</v>
+        <v>1216.07</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -962,7 +998,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>824.62</v>
+        <v>1184.77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -973,7 +1009,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>822.0599999999999</v>
+        <v>1015.03</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -984,7 +1020,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>802.92</v>
+        <v>961.55</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -995,7 +1031,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>778.52</v>
+        <v>946.08</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1006,7 +1042,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>713.87</v>
+        <v>945.36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1017,7 +1053,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>693</v>
+        <v>892.26</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1028,7 +1064,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>674.86</v>
+        <v>824.62</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1039,7 +1075,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>656.96</v>
+        <v>822.0599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1050,7 +1086,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>489.74</v>
+        <v>802.92</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1061,7 +1097,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>488.53</v>
+        <v>795.4299999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1072,7 +1108,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>475.56</v>
+        <v>778.52</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1083,7 +1119,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>469.87</v>
+        <v>747.4299999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1094,7 +1130,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>436.89</v>
+        <v>713.87</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1105,7 +1141,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>421.82</v>
+        <v>711.7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1116,7 +1152,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>417.85</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1127,7 +1163,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>417.11</v>
+        <v>674.86</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1138,7 +1174,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>399.42</v>
+        <v>656.96</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1149,7 +1185,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>353.28</v>
+        <v>489.74</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1160,7 +1196,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>348.81</v>
+        <v>488.53</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1171,7 +1207,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>314.79</v>
+        <v>475.56</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1182,7 +1218,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>300.64</v>
+        <v>469.87</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1193,7 +1229,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>290.01</v>
+        <v>454.06</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1204,7 +1240,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>278.73</v>
+        <v>436.89</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1215,7 +1251,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>263.78</v>
+        <v>421.82</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1226,7 +1262,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>245.8</v>
+        <v>417.85</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1237,7 +1273,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>243.03</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1248,7 +1284,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>167.16</v>
+        <v>399.42</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1259,7 +1295,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>162.88</v>
+        <v>353.28</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1270,7 +1306,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>113.14</v>
+        <v>348.81</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1281,7 +1317,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>110.81</v>
+        <v>314.79</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1292,7 +1328,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>102.57</v>
+        <v>300.64</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1303,7 +1339,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>95.34</v>
+        <v>290.01</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1314,7 +1350,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>87.01000000000001</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1325,7 +1361,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>75.28</v>
+        <v>263.78</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1336,7 +1372,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>54.02</v>
+        <v>245.8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1347,7 +1383,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>9.539999999999999</v>
+        <v>243.03</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1358,7 +1394,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>3.83</v>
+        <v>167.16</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1369,7 +1405,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>-6.28</v>
+        <v>162.88</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1380,7 +1416,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>-49.82</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1391,7 +1427,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>-246.09</v>
+        <v>110.81</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1402,7 +1438,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>-282.87</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1413,7 +1449,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>-991.11</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1424,7 +1460,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>-1175.56</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1435,7 +1471,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>-1553.35</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1446,7 +1482,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>-1559.88</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1457,7 +1493,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>-2009.62</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1468,7 +1504,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>-2493.54</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1479,7 +1515,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>-3320.92</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1490,7 +1526,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>-5006.69</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1501,7 +1537,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>-7805.58</v>
+        <v>-246.09</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1512,7 +1548,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>-9103.790000000001</v>
+        <v>-282.87</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1523,7 +1559,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>-9779.209999999999</v>
+        <v>-991.11</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1534,7 +1570,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>-17189.16</v>
+        <v>-1175.56</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1545,7 +1581,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>-19079.85</v>
+        <v>-1553.35</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1556,7 +1592,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>-36587.5</v>
+        <v>-1559.88</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1567,7 +1603,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>-52115.64</v>
+        <v>-2009.62</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1578,7 +1614,139 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>-83215.56</v>
+        <v>-2493.54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>-3320.92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>-5006.69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>-7805.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>-9103.790000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>-9779.209999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>-13615.02</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93">
+        <v>-15755.32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94">
+        <v>-19079.85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95">
+        <v>-19840.54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96">
+        <v>-21670.43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97">
+        <v>-24842.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98">
+        <v>-73148.71000000001</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/profit.xlsx
+++ b/cal_profit/profit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>证券名称</t>
   </si>
@@ -52,6 +52,9 @@
     <t>青农商行</t>
   </si>
   <si>
+    <t>易尚展示</t>
+  </si>
+  <si>
     <t>银之杰</t>
   </si>
   <si>
@@ -61,9 +64,15 @@
     <t>德宏股份</t>
   </si>
   <si>
+    <t>麦克奥迪</t>
+  </si>
+  <si>
     <t>长城证券</t>
   </si>
   <si>
+    <t>我武生物</t>
+  </si>
+  <si>
     <t>诚志股份</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>宏达电子</t>
   </si>
   <si>
+    <t>苏奥传感</t>
+  </si>
+  <si>
     <t>四方精创</t>
   </si>
   <si>
@@ -85,232 +97,226 @@
     <t>瀛通通讯</t>
   </si>
   <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>丰乐种业</t>
+  </si>
+  <si>
+    <t>九典制药</t>
+  </si>
+  <si>
+    <t>航发科技</t>
+  </si>
+  <si>
+    <t>恒铭达</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>精测电子</t>
+  </si>
+  <si>
+    <t>华森制药</t>
+  </si>
+  <si>
+    <t>人民网</t>
+  </si>
+  <si>
+    <t>科大智能</t>
+  </si>
+  <si>
+    <t>西藏天路</t>
+  </si>
+  <si>
+    <t>神州数码</t>
+  </si>
+  <si>
+    <t>北方稀土</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>硕贝德</t>
+  </si>
+  <si>
+    <t>惠威科技</t>
+  </si>
+  <si>
+    <t>太空板业</t>
+  </si>
+  <si>
+    <t>科瑞技术</t>
+  </si>
+  <si>
+    <t>华脉科技</t>
+  </si>
+  <si>
+    <t>奥飞娱乐</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>飞力达</t>
+  </si>
+  <si>
+    <t>东方通信</t>
+  </si>
+  <si>
+    <t>吴通控股</t>
+  </si>
+  <si>
+    <t>招商蛇口</t>
+  </si>
+  <si>
+    <t>安硕信息</t>
+  </si>
+  <si>
+    <t>高能环境</t>
+  </si>
+  <si>
+    <t>光弘科技</t>
+  </si>
+  <si>
+    <t>蓝思科技</t>
+  </si>
+  <si>
+    <t>盛和资源</t>
+  </si>
+  <si>
+    <t>庄园牧场</t>
+  </si>
+  <si>
+    <t>太阳鸟</t>
+  </si>
+  <si>
+    <t>武汉凡谷</t>
+  </si>
+  <si>
+    <t>科创信息</t>
+  </si>
+  <si>
+    <t>中直股份</t>
+  </si>
+  <si>
+    <t>光迅科技</t>
+  </si>
+  <si>
+    <t>贵州燃气</t>
+  </si>
+  <si>
+    <t>*ST舜船</t>
+  </si>
+  <si>
+    <t>方大特钢</t>
+  </si>
+  <si>
+    <t>银龙股份</t>
+  </si>
+  <si>
+    <t>旋极信息</t>
+  </si>
+  <si>
+    <t>中信建投</t>
+  </si>
+  <si>
+    <t>均胜电子</t>
+  </si>
+  <si>
+    <t>南京证券</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>初灵信息</t>
+  </si>
+  <si>
+    <t>苏泊尔</t>
+  </si>
+  <si>
+    <t>新晨科技</t>
+  </si>
+  <si>
+    <t>赛隆药业</t>
+  </si>
+  <si>
+    <t>北京君正</t>
+  </si>
+  <si>
+    <t>中电鑫龙</t>
+  </si>
+  <si>
+    <t>科大国创</t>
+  </si>
+  <si>
+    <t>东北制药</t>
+  </si>
+  <si>
+    <t>华夏幸福</t>
+  </si>
+  <si>
+    <t>白银有色</t>
+  </si>
+  <si>
+    <t>信立泰</t>
+  </si>
+  <si>
+    <t>上海家化</t>
+  </si>
+  <si>
+    <t>华培动力</t>
+  </si>
+  <si>
+    <t>赛为智能</t>
+  </si>
+  <si>
+    <t>西水股份</t>
+  </si>
+  <si>
+    <t>北方国际</t>
+  </si>
+  <si>
+    <t>东软载波</t>
+  </si>
+  <si>
+    <t>汉王科技</t>
+  </si>
+  <si>
+    <t>东港股份</t>
+  </si>
+  <si>
+    <t>冀东水泥</t>
+  </si>
+  <si>
+    <t>合肥城建</t>
+  </si>
+  <si>
+    <t>西部建设</t>
+  </si>
+  <si>
+    <t>中海达</t>
+  </si>
+  <si>
+    <t>顺灏股份</t>
+  </si>
+  <si>
+    <t>中通国脉</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>四川金顶</t>
+  </si>
+  <si>
     <t>科蓝软件</t>
   </si>
   <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>丰乐种业</t>
-  </si>
-  <si>
-    <t>九典制药</t>
-  </si>
-  <si>
-    <t>航发科技</t>
-  </si>
-  <si>
-    <t>恒铭达</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>精测电子</t>
-  </si>
-  <si>
-    <t>华森制药</t>
-  </si>
-  <si>
-    <t>人民网</t>
-  </si>
-  <si>
-    <t>科大智能</t>
-  </si>
-  <si>
-    <t>西藏天路</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>苏奥传感</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>硕贝德</t>
-  </si>
-  <si>
-    <t>惠威科技</t>
-  </si>
-  <si>
-    <t>太空板业</t>
-  </si>
-  <si>
-    <t>科瑞技术</t>
-  </si>
-  <si>
-    <t>华脉科技</t>
-  </si>
-  <si>
-    <t>奥飞娱乐</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>飞力达</t>
-  </si>
-  <si>
-    <t>东方通信</t>
-  </si>
-  <si>
-    <t>吴通控股</t>
-  </si>
-  <si>
-    <t>招商蛇口</t>
-  </si>
-  <si>
-    <t>安硕信息</t>
-  </si>
-  <si>
-    <t>高能环境</t>
-  </si>
-  <si>
-    <t>光弘科技</t>
-  </si>
-  <si>
-    <t>蓝思科技</t>
-  </si>
-  <si>
-    <t>盛和资源</t>
-  </si>
-  <si>
-    <t>庄园牧场</t>
-  </si>
-  <si>
-    <t>太阳鸟</t>
-  </si>
-  <si>
-    <t>武汉凡谷</t>
-  </si>
-  <si>
-    <t>科创信息</t>
-  </si>
-  <si>
-    <t>中直股份</t>
-  </si>
-  <si>
-    <t>光迅科技</t>
-  </si>
-  <si>
-    <t>贵州燃气</t>
-  </si>
-  <si>
-    <t>*ST舜船</t>
-  </si>
-  <si>
-    <t>方大特钢</t>
-  </si>
-  <si>
-    <t>银龙股份</t>
-  </si>
-  <si>
-    <t>旋极信息</t>
-  </si>
-  <si>
-    <t>中信建投</t>
-  </si>
-  <si>
-    <t>均胜电子</t>
-  </si>
-  <si>
-    <t>南京证券</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>初灵信息</t>
-  </si>
-  <si>
-    <t>苏泊尔</t>
-  </si>
-  <si>
-    <t>新晨科技</t>
-  </si>
-  <si>
-    <t>赛隆药业</t>
-  </si>
-  <si>
-    <t>北京君正</t>
-  </si>
-  <si>
-    <t>中电鑫龙</t>
-  </si>
-  <si>
-    <t>科大国创</t>
-  </si>
-  <si>
-    <t>东北制药</t>
-  </si>
-  <si>
-    <t>华夏幸福</t>
-  </si>
-  <si>
-    <t>白银有色</t>
-  </si>
-  <si>
-    <t>信立泰</t>
-  </si>
-  <si>
-    <t>上海家化</t>
-  </si>
-  <si>
-    <t>赛为智能</t>
-  </si>
-  <si>
-    <t>西水股份</t>
-  </si>
-  <si>
-    <t>北方国际</t>
-  </si>
-  <si>
-    <t>东软载波</t>
-  </si>
-  <si>
-    <t>汉王科技</t>
-  </si>
-  <si>
     <t>上海新阳</t>
-  </si>
-  <si>
-    <t>东港股份</t>
-  </si>
-  <si>
-    <t>冀东水泥</t>
-  </si>
-  <si>
-    <t>合肥城建</t>
-  </si>
-  <si>
-    <t>西部建设</t>
-  </si>
-  <si>
-    <t>中海达</t>
-  </si>
-  <si>
-    <t>麦克奥迪</t>
-  </si>
-  <si>
-    <t>华培动力</t>
-  </si>
-  <si>
-    <t>顺灏股份</t>
-  </si>
-  <si>
-    <t>神州数码</t>
-  </si>
-  <si>
-    <t>四川金顶</t>
-  </si>
-  <si>
-    <t>中通国脉</t>
-  </si>
-  <si>
-    <t>我武生物</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>3033.46</v>
+        <v>3251.71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -811,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>2815.26</v>
+        <v>3033.46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -822,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2507.24</v>
+        <v>2815.26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -833,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>2133.85</v>
+        <v>2507.24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -844,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1936.98</v>
+        <v>2340.35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -855,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1865.48</v>
+        <v>2133.85</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -866,7 +872,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1731.87</v>
+        <v>2113.32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -877,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1723.66</v>
+        <v>1936.98</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -888,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1524.36</v>
+        <v>1865.48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -899,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1514.54</v>
+        <v>1731.87</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -910,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1462.96</v>
+        <v>1723.66</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -921,7 +927,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1425.53</v>
+        <v>1669.07</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -932,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1414.7</v>
+        <v>1524.36</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -943,7 +949,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1410.63</v>
+        <v>1514.54</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -954,7 +960,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1378.37</v>
+        <v>1462.96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -965,7 +971,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1333.8</v>
+        <v>1414.7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -976,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>1316.05</v>
+        <v>1410.63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -987,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>1216.07</v>
+        <v>1378.37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -998,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>1184.77</v>
+        <v>1333.8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1009,7 +1015,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>1015.03</v>
+        <v>1316.05</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1020,7 +1026,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>961.55</v>
+        <v>1216.07</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1031,7 +1037,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>946.08</v>
+        <v>1184.77</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1042,7 +1048,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>945.36</v>
+        <v>1015.03</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1053,7 +1059,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>892.26</v>
+        <v>961.55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1064,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>824.62</v>
+        <v>946.08</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1075,7 +1081,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>822.0599999999999</v>
+        <v>945.36</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1086,7 +1092,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>802.92</v>
+        <v>942.4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1097,7 +1103,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>795.4299999999999</v>
+        <v>892.26</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1108,7 +1114,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>778.52</v>
+        <v>822.0599999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1119,7 +1125,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>747.4299999999999</v>
+        <v>802.92</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1130,7 +1136,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>713.87</v>
+        <v>795.4299999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1141,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>711.7</v>
+        <v>778.52</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1152,7 +1158,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>693</v>
+        <v>747.4299999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1163,7 +1169,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>674.86</v>
+        <v>713.87</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1174,7 +1180,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>656.96</v>
+        <v>711.7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1185,7 +1191,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>489.74</v>
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1196,7 +1202,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>488.53</v>
+        <v>674.86</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1207,7 +1213,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>475.56</v>
+        <v>656.96</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1218,7 +1224,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>469.87</v>
+        <v>489.74</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1229,7 +1235,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>454.06</v>
+        <v>488.53</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1240,7 +1246,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>436.89</v>
+        <v>475.56</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1251,7 +1257,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>421.82</v>
+        <v>469.87</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1262,7 +1268,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>417.85</v>
+        <v>454.06</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1273,7 +1279,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>417.11</v>
+        <v>436.89</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1284,7 +1290,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>399.42</v>
+        <v>421.82</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1295,7 +1301,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>353.28</v>
+        <v>417.85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1306,7 +1312,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>348.81</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1317,7 +1323,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>314.79</v>
+        <v>399.42</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1328,7 +1334,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>300.64</v>
+        <v>353.28</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1339,7 +1345,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>290.01</v>
+        <v>348.81</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1350,7 +1356,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>278.73</v>
+        <v>314.79</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1361,7 +1367,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>263.78</v>
+        <v>300.64</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1372,7 +1378,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>245.8</v>
+        <v>290.01</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1383,7 +1389,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>243.03</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1394,7 +1400,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>167.16</v>
+        <v>263.78</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1405,7 +1411,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>162.88</v>
+        <v>245.8</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1416,7 +1422,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>113.14</v>
+        <v>243.03</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1427,7 +1433,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>110.81</v>
+        <v>167.16</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1438,7 +1444,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>102.57</v>
+        <v>162.88</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1449,7 +1455,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>95.34</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1460,7 +1466,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>87.01000000000001</v>
+        <v>110.81</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1471,7 +1477,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>75.28</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1482,7 +1488,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>54.02</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1493,7 +1499,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>9.539999999999999</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1504,7 +1510,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>3.83</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1515,7 +1521,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>-6.28</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1526,7 +1532,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>-49.82</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1537,7 +1543,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>-246.09</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1548,7 +1554,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>-282.87</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1559,7 +1565,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>-991.11</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1570,7 +1576,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>-1175.56</v>
+        <v>-246.09</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1581,7 +1587,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>-1553.35</v>
+        <v>-282.87</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1592,7 +1598,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>-1559.88</v>
+        <v>-535.86</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1603,7 +1609,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>-2009.62</v>
+        <v>-991.11</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1614,7 +1620,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>-2493.54</v>
+        <v>-1175.56</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1625,7 +1631,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>-3320.92</v>
+        <v>-1553.35</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1636,7 +1642,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>-5006.69</v>
+        <v>-1559.88</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1647,7 +1653,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>-7805.58</v>
+        <v>-2009.62</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1658,7 +1664,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>-9103.790000000001</v>
+        <v>-3320.92</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1669,7 +1675,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>-9779.209999999999</v>
+        <v>-5006.69</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1680,7 +1686,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>-13615.02</v>
+        <v>-7805.58</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1691,7 +1697,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>-15755.32</v>
+        <v>-9103.790000000001</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1702,7 +1708,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>-19079.85</v>
+        <v>-9779.209999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1713,7 +1719,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>-19840.54</v>
+        <v>-19079.85</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1724,7 +1730,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>-21670.43</v>
+        <v>-24842.7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1735,7 +1741,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>-24842.7</v>
+        <v>-25538.17</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1746,7 +1752,29 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>-73148.71000000001</v>
+        <v>-35735.71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99">
+        <v>-64073.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>-84014.74000000001</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/profit.xlsx
+++ b/cal_profit/profit.xlsx
@@ -67,6 +67,9 @@
     <t>麦克奥迪</t>
   </si>
   <si>
+    <t>四川金顶</t>
+  </si>
+  <si>
     <t>长城证券</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>华菱精工</t>
   </si>
   <si>
+    <t>上海新阳</t>
+  </si>
+  <si>
     <t>汉钟精机</t>
   </si>
   <si>
@@ -130,193 +136,187 @@
     <t>西藏天路</t>
   </si>
   <si>
+    <t>北方稀土</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>硕贝德</t>
+  </si>
+  <si>
+    <t>惠威科技</t>
+  </si>
+  <si>
+    <t>太空板业</t>
+  </si>
+  <si>
+    <t>科瑞技术</t>
+  </si>
+  <si>
+    <t>华脉科技</t>
+  </si>
+  <si>
+    <t>奥飞娱乐</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>飞力达</t>
+  </si>
+  <si>
+    <t>东方通信</t>
+  </si>
+  <si>
+    <t>吴通控股</t>
+  </si>
+  <si>
+    <t>招商蛇口</t>
+  </si>
+  <si>
+    <t>安硕信息</t>
+  </si>
+  <si>
+    <t>高能环境</t>
+  </si>
+  <si>
+    <t>光弘科技</t>
+  </si>
+  <si>
+    <t>蓝思科技</t>
+  </si>
+  <si>
+    <t>盛和资源</t>
+  </si>
+  <si>
+    <t>庄园牧场</t>
+  </si>
+  <si>
+    <t>太阳鸟</t>
+  </si>
+  <si>
+    <t>武汉凡谷</t>
+  </si>
+  <si>
+    <t>科创信息</t>
+  </si>
+  <si>
+    <t>中直股份</t>
+  </si>
+  <si>
+    <t>光迅科技</t>
+  </si>
+  <si>
+    <t>贵州燃气</t>
+  </si>
+  <si>
+    <t>*ST舜船</t>
+  </si>
+  <si>
+    <t>方大特钢</t>
+  </si>
+  <si>
+    <t>银龙股份</t>
+  </si>
+  <si>
+    <t>旋极信息</t>
+  </si>
+  <si>
+    <t>中信建投</t>
+  </si>
+  <si>
+    <t>均胜电子</t>
+  </si>
+  <si>
+    <t>南京证券</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>初灵信息</t>
+  </si>
+  <si>
+    <t>苏泊尔</t>
+  </si>
+  <si>
+    <t>新晨科技</t>
+  </si>
+  <si>
+    <t>赛隆药业</t>
+  </si>
+  <si>
+    <t>北京君正</t>
+  </si>
+  <si>
+    <t>中电鑫龙</t>
+  </si>
+  <si>
+    <t>科大国创</t>
+  </si>
+  <si>
+    <t>东北制药</t>
+  </si>
+  <si>
+    <t>华夏幸福</t>
+  </si>
+  <si>
+    <t>白银有色</t>
+  </si>
+  <si>
+    <t>信立泰</t>
+  </si>
+  <si>
+    <t>上海家化</t>
+  </si>
+  <si>
+    <t>华培动力</t>
+  </si>
+  <si>
+    <t>赛为智能</t>
+  </si>
+  <si>
+    <t>西水股份</t>
+  </si>
+  <si>
+    <t>北方国际</t>
+  </si>
+  <si>
+    <t>东软载波</t>
+  </si>
+  <si>
+    <t>汉王科技</t>
+  </si>
+  <si>
+    <t>东港股份</t>
+  </si>
+  <si>
+    <t>冀东水泥</t>
+  </si>
+  <si>
+    <t>合肥城建</t>
+  </si>
+  <si>
+    <t>西部建设</t>
+  </si>
+  <si>
+    <t>中海达</t>
+  </si>
+  <si>
+    <t>顺灏股份</t>
+  </si>
+  <si>
+    <t>中通国脉</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
     <t>神州数码</t>
   </si>
   <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>硕贝德</t>
-  </si>
-  <si>
-    <t>惠威科技</t>
-  </si>
-  <si>
-    <t>太空板业</t>
-  </si>
-  <si>
-    <t>科瑞技术</t>
-  </si>
-  <si>
-    <t>华脉科技</t>
-  </si>
-  <si>
-    <t>奥飞娱乐</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>飞力达</t>
-  </si>
-  <si>
-    <t>东方通信</t>
-  </si>
-  <si>
-    <t>吴通控股</t>
-  </si>
-  <si>
-    <t>招商蛇口</t>
-  </si>
-  <si>
-    <t>安硕信息</t>
-  </si>
-  <si>
-    <t>高能环境</t>
-  </si>
-  <si>
-    <t>光弘科技</t>
-  </si>
-  <si>
-    <t>蓝思科技</t>
-  </si>
-  <si>
-    <t>盛和资源</t>
-  </si>
-  <si>
-    <t>庄园牧场</t>
-  </si>
-  <si>
-    <t>太阳鸟</t>
-  </si>
-  <si>
-    <t>武汉凡谷</t>
-  </si>
-  <si>
-    <t>科创信息</t>
-  </si>
-  <si>
-    <t>中直股份</t>
-  </si>
-  <si>
-    <t>光迅科技</t>
-  </si>
-  <si>
-    <t>贵州燃气</t>
-  </si>
-  <si>
-    <t>*ST舜船</t>
-  </si>
-  <si>
-    <t>方大特钢</t>
-  </si>
-  <si>
-    <t>银龙股份</t>
-  </si>
-  <si>
-    <t>旋极信息</t>
-  </si>
-  <si>
-    <t>中信建投</t>
-  </si>
-  <si>
-    <t>均胜电子</t>
-  </si>
-  <si>
-    <t>南京证券</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>初灵信息</t>
-  </si>
-  <si>
-    <t>苏泊尔</t>
-  </si>
-  <si>
-    <t>新晨科技</t>
-  </si>
-  <si>
-    <t>赛隆药业</t>
-  </si>
-  <si>
-    <t>北京君正</t>
-  </si>
-  <si>
-    <t>中电鑫龙</t>
-  </si>
-  <si>
-    <t>科大国创</t>
-  </si>
-  <si>
-    <t>东北制药</t>
-  </si>
-  <si>
-    <t>华夏幸福</t>
-  </si>
-  <si>
-    <t>白银有色</t>
-  </si>
-  <si>
-    <t>信立泰</t>
-  </si>
-  <si>
-    <t>上海家化</t>
-  </si>
-  <si>
-    <t>华培动力</t>
-  </si>
-  <si>
-    <t>赛为智能</t>
-  </si>
-  <si>
-    <t>西水股份</t>
-  </si>
-  <si>
-    <t>北方国际</t>
-  </si>
-  <si>
-    <t>东软载波</t>
-  </si>
-  <si>
-    <t>汉王科技</t>
-  </si>
-  <si>
-    <t>东港股份</t>
-  </si>
-  <si>
-    <t>冀东水泥</t>
-  </si>
-  <si>
-    <t>合肥城建</t>
-  </si>
-  <si>
-    <t>西部建设</t>
-  </si>
-  <si>
-    <t>中海达</t>
-  </si>
-  <si>
-    <t>顺灏股份</t>
-  </si>
-  <si>
-    <t>中通国脉</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>四川金顶</t>
-  </si>
-  <si>
     <t>科蓝软件</t>
-  </si>
-  <si>
-    <t>上海新阳</t>
   </si>
 </sst>
 </file>
@@ -861,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>2133.85</v>
+        <v>2338.95</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -872,7 +872,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>2113.32</v>
+        <v>2133.85</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -883,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1936.98</v>
+        <v>2113.32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -894,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1865.48</v>
+        <v>1936.98</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -905,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1731.87</v>
+        <v>1865.48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -916,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1723.66</v>
+        <v>1842.49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -927,7 +927,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1669.07</v>
+        <v>1731.87</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -938,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1524.36</v>
+        <v>1723.66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -949,7 +949,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>1514.54</v>
+        <v>1669.07</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -960,7 +960,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>1462.96</v>
+        <v>1524.36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -971,7 +971,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1414.7</v>
+        <v>1514.54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -982,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>1410.63</v>
+        <v>1462.96</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -993,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>1378.37</v>
+        <v>1414.7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>1333.8</v>
+        <v>1410.63</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>1316.05</v>
+        <v>1378.37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>1216.07</v>
+        <v>1333.8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>1184.77</v>
+        <v>1316.05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>1015.03</v>
+        <v>1216.07</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>961.55</v>
+        <v>1184.77</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>946.08</v>
+        <v>1015.03</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>945.36</v>
+        <v>961.55</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>942.4</v>
+        <v>946.08</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>892.26</v>
+        <v>945.36</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>822.0599999999999</v>
+        <v>892.26</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>802.92</v>
+        <v>822.0599999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>795.4299999999999</v>
+        <v>802.92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>778.52</v>
+        <v>795.4299999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>747.4299999999999</v>
+        <v>778.52</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>713.87</v>
+        <v>747.4299999999999</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>711.7</v>
+        <v>713.87</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>693</v>
+        <v>711.7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>674.86</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>656.96</v>
+        <v>674.86</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>489.74</v>
+        <v>656.96</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>488.53</v>
+        <v>489.74</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>475.56</v>
+        <v>488.53</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>469.87</v>
+        <v>475.56</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>454.06</v>
+        <v>469.87</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>436.89</v>
+        <v>454.06</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>421.82</v>
+        <v>436.89</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>417.85</v>
+        <v>421.82</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>417.11</v>
+        <v>417.85</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>399.42</v>
+        <v>417.11</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>353.28</v>
+        <v>399.42</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>348.81</v>
+        <v>353.28</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>314.79</v>
+        <v>348.81</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>300.64</v>
+        <v>314.79</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>290.01</v>
+        <v>300.64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>278.73</v>
+        <v>290.01</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>263.78</v>
+        <v>278.73</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>245.8</v>
+        <v>263.78</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>243.03</v>
+        <v>245.8</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>167.16</v>
+        <v>243.03</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>162.88</v>
+        <v>167.16</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>113.14</v>
+        <v>162.88</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>110.81</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>102.57</v>
+        <v>110.81</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>95.34</v>
+        <v>102.57</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>87.01000000000001</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>75.28</v>
+        <v>87.01000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>54.02</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>9.539999999999999</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>3.83</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>-6.28</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>-49.82</v>
+        <v>-6.28</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>-246.09</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>-282.87</v>
+        <v>-246.09</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>-535.86</v>
+        <v>-282.87</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>-991.11</v>
+        <v>-535.86</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>-1175.56</v>
+        <v>-991.11</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>-1553.35</v>
+        <v>-1175.56</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>-1559.88</v>
+        <v>-1553.35</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>-2009.62</v>
+        <v>-1559.88</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>-3320.92</v>
+        <v>-2009.62</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>-5006.69</v>
+        <v>-3320.92</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>-7805.58</v>
+        <v>-5006.69</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>-9103.790000000001</v>
+        <v>-7805.58</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>-9779.209999999999</v>
+        <v>-9103.790000000001</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>-19079.85</v>
+        <v>-9779.209999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>-24842.7</v>
+        <v>-19079.85</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>-25538.17</v>
+        <v>-24842.7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>-35735.71</v>
+        <v>-37888.42</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>-64073.95</v>
+        <v>-77108.34</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>-84014.74000000001</v>
+        <v>-82223.39999999999</v>
       </c>
     </row>
   </sheetData>
